--- a/Time table to follow.xlsx
+++ b/Time table to follow.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D40706-D3F7-485B-857A-F8A4E2F17A04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F14081-EC8C-4402-B539-838FD62F1548}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>Leave bed</t>
   </si>
@@ -415,7 +421,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +474,12 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -476,6 +488,12 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -484,6 +502,12 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -492,6 +516,12 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -500,6 +530,12 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -508,6 +544,12 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -516,6 +558,12 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -524,6 +572,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -532,6 +583,9 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -540,6 +594,9 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -548,6 +605,9 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -556,6 +616,9 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -564,6 +627,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -575,6 +641,9 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -586,8 +655,11 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -597,8 +669,11 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -608,8 +683,11 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -619,8 +697,11 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -630,37 +711,58 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.94791666666666663</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.97916666666666663</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>13</v>
       </c>

--- a/Time table to follow.xlsx
+++ b/Time table to follow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F14081-EC8C-4402-B539-838FD62F1548}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429FEF2-C1AE-4CBB-9F53-385E31995909}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>Leave bed</t>
   </si>
@@ -421,7 +422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +576,9 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -586,6 +590,9 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -597,6 +604,9 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -608,6 +618,9 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -617,6 +630,9 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Time table to follow.xlsx
+++ b/Time table to follow.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429FEF2-C1AE-4CBB-9F53-385E31995909}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1B8AF-8DB4-4001-9A1E-DEFC5559003E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>Leave bed</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t>Read C++ book</t>
+  </si>
+  <si>
+    <t>C++ Primer</t>
+  </si>
+  <si>
+    <t>Solidworks VBA Macros</t>
+  </si>
+  <si>
+    <t>Go Mech</t>
+  </si>
+  <si>
+    <t>Clearspan</t>
+  </si>
+  <si>
+    <t>Relaxing work</t>
+  </si>
+  <si>
+    <t>Fassetto.Word</t>
+  </si>
+  <si>
+    <t>Cherno C++</t>
   </si>
 </sst>
 </file>
@@ -124,21 +145,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -418,11 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +502,9 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -495,6 +519,9 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -509,6 +536,9 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -523,6 +553,9 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -537,6 +570,9 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -551,6 +587,9 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -565,6 +604,9 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -579,6 +621,9 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -593,6 +638,12 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -607,6 +658,12 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -621,6 +678,12 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -635,6 +698,12 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -646,6 +715,12 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -660,6 +735,12 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -674,8 +755,14 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -688,8 +775,14 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -702,8 +795,14 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -716,8 +815,14 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -730,8 +835,11 @@
       <c r="D20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -745,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -759,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -773,23 +881,81 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <f>10+10+10</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <f>10+10+10</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <f>10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <f>10+10+10+10+10+10+10+10</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35">
+        <f>10+10</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L23">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
